--- a/medicine/Œil et vue/Atol_(opticien)/Atol_(opticien).xlsx
+++ b/medicine/Œil et vue/Atol_(opticien)/Atol_(opticien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Atol[1] (acronyme d'Association des techniciens en optique et lunetterie) est une chaîne d'opticiens fondée en 1970, transformée en 2009 en  société en nom collectif.  
+Atol (acronyme d'Association des techniciens en optique et lunetterie) est une chaîne d'opticiens fondée en 1970, transformée en 2009 en  société en nom collectif.  
 Elle détient sa propre plateforme logistique et industrielle à Beaune.  
 En 2018, elle regroupe 752 magasins répartis dans 668 communes françaises.   
-Les opticiens Atol ont été classés comme un des leaders du service en 2017 et 2018 par le magazine Capital[2].  
+Les opticiens Atol ont été classés comme un des leaders du service en 2017 et 2018 par le magazine Capital.  
 </t>
         </is>
       </c>
@@ -515,19 +527,21 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enseigne est fondée sous le nom d’Association des techniciens en optique et lunetterie en 1970.
 En 1972, sa centrale d'achat, la CEDAC est créée. 
 Atol invente le concept de la seconde paire de lunettes offerte (ATOL BIS) en 1974.
-Création de l'organisme de formation des opticiens Atol, Sup d'Optic[3] a lieu en 1996.
-Première campagne télévisée avec le chanteur Antoine[4] sort en 1999. 
-Le lancement du premier site internet Atol a lieu en 1999. Le lancement d'Atol Audio a lieu en 2000[5].
-En 2005, Atol relocalise une partie de sa production en France en faisant fabriquer les montures de sa première collection privée Ushuaïa dans le bassin lunettier jurassien[6]
-L'ouverture du site industriel et logistique d'Atol à Beaune, en région Bourgogne-Franche-Comté[7] a lieu en 2007. En 2008, Atol lance la première collection de montures personnalisables dont l'égérie est Adriana Karembeu[8]. En 2008, Atol devient le premier réseau national d'optique certifié ISO 9001.
-Le lancement de l'essayage en réalité augmentée sur le site internet et de l'application mobile Atol[9] se fait en 2010.
-La création des lunettes connectées géolocalisables (Téou d'Atol)[10] a lieu en 2015.
-En 2018, Atol crée la start-up Abeye et lance de nouveaux programmes de recherche. Le premier programme est Senior Care avec une monture qui détecte les chutes des seniors[11],[12].
+Création de l'organisme de formation des opticiens Atol, Sup d'Optic a lieu en 1996.
+Première campagne télévisée avec le chanteur Antoine sort en 1999. 
+Le lancement du premier site internet Atol a lieu en 1999. Le lancement d'Atol Audio a lieu en 2000.
+En 2005, Atol relocalise une partie de sa production en France en faisant fabriquer les montures de sa première collection privée Ushuaïa dans le bassin lunettier jurassien
+L'ouverture du site industriel et logistique d'Atol à Beaune, en région Bourgogne-Franche-Comté a lieu en 2007. En 2008, Atol lance la première collection de montures personnalisables dont l'égérie est Adriana Karembeu. En 2008, Atol devient le premier réseau national d'optique certifié ISO 9001.
+Le lancement de l'essayage en réalité augmentée sur le site internet et de l'application mobile Atol se fait en 2010.
+La création des lunettes connectées géolocalisables (Téou d'Atol) a lieu en 2015.
+En 2018, Atol crée la start-up Abeye et lance de nouveaux programmes de recherche. Le premier programme est Senior Care avec une monture qui détecte les chutes des seniors,.
 </t>
         </is>
       </c>
@@ -556,7 +570,9 @@
           <t>Identité visuelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Logo d'Atol (de 1970 à 1994)
@@ -592,13 +608,15 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour leurs publicités, les opticiens Atol ont longtemps fait appel au chanteur Antoine comme égérie. 
-En 2008, Adriana Karembeu, mannequin et animatrice, rejoint l'enseigne pour représenter Atol[8]. 
-De 2012 à 2014, le chanteur M. Pokora a incarné la collection D' CLIP d'Atol[13].
-En  2016, Atol les opticiens diffuse une série de trois spots radio sur sa campagne « Mon opticien Atol, juste quelqu'un de bien », dans le but de valoriser le métier d'opticien en lui donnant la parole sur un registre de complicité. Cette campagne est déclinée en 2016 à la télévision[14].
-En 2018, la coopérative Atol crée une nouvelle campagne publicitaire, « 40 ans, enfin », orchestrée par l'agence Romance et réalisée par Katia Lewkowicz[15],[16].
+En 2008, Adriana Karembeu, mannequin et animatrice, rejoint l'enseigne pour représenter Atol. 
+De 2012 à 2014, le chanteur M. Pokora a incarné la collection D' CLIP d'Atol.
+En  2016, Atol les opticiens diffuse une série de trois spots radio sur sa campagne « Mon opticien Atol, juste quelqu'un de bien », dans le but de valoriser le métier d'opticien en lui donnant la parole sur un registre de complicité. Cette campagne est déclinée en 2016 à la télévision.
+En 2018, la coopérative Atol crée une nouvelle campagne publicitaire, « 40 ans, enfin », orchestrée par l'agence Romance et réalisée par Katia Lewkowicz,.
 </t>
         </is>
       </c>
